--- a/biology/Zoologie/Andrena_flavipes/Andrena_flavipes.xlsx
+++ b/biology/Zoologie/Andrena_flavipes/Andrena_flavipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrène à pattes jaunes
 Andrena flavipes, communément appelé Andrène à pattes jaunes, est une espèce d'insectes hyménoptères de la famille des Andrenidae. Cette abeille est présente en Europe, en Asie et dans le nord de l'Afrique.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette abeille sauvage, dont l'aspect général rappelle celui de l'abeille domestique présente des poils bruns sur le thorax et sur la tête, plus clairs en dessous de l'abdomen. Ce dernier est noir rayé de jaune et se termine par une brosse noire. Les pattes postérieures des femelles présentent des brosses à pollen jaunes. Les mâles ont une frange de poils noirs sur la marge intérieure des yeux, contrastant avec les poils brunâtres de la face[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette abeille sauvage, dont l'aspect général rappelle celui de l'abeille domestique présente des poils bruns sur le thorax et sur la tête, plus clairs en dessous de l'abdomen. Ce dernier est noir rayé de jaune et se termine par une brosse noire. Les pattes postérieures des femelles présentent des brosses à pollen jaunes. Les mâles ont une frange de poils noirs sur la marge intérieure des yeux, contrastant avec les poils brunâtres de la face.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est bivoltine, elle a deux générations par an. La première vole d'avril à mai, on la trouve sur des Salicaceae (saules), Asteraceae (Bellis perennis, Tussilago farfara), Rosaceae (Mallus, Potentila verna), Lamiaceae (Lamium), Ranunculaceae (Ranunculus) et Scrophulariaceae (véronique petit-chêne). La deuxième visite les Asteraceae et les Fabaceae[3]. Les femelles peuvent former des bourgades dans des milieux anthropisés, des zones humides et le long des cours d'eau. Elles creusent une galerie d'une dizaine de cm comportant jusqu'à 10 cellules accueillant chacune une larve[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est bivoltine, elle a deux générations par an. La première vole d'avril à mai, on la trouve sur des Salicaceae (saules), Asteraceae (Bellis perennis, Tussilago farfara), Rosaceae (Mallus, Potentila verna), Lamiaceae (Lamium), Ranunculaceae (Ranunculus) et Scrophulariaceae (véronique petit-chêne). La deuxième visite les Asteraceae et les Fabaceae. Les femelles peuvent former des bourgades dans des milieux anthropisés, des zones humides et le long des cours d'eau. Elles creusent une galerie d'une dizaine de cm comportant jusqu'à 10 cellules accueillant chacune une larve.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Parasites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nids sont parasités par Nomada fucata, une abeille coucou spécifiquement liée à Andrena flavipes.
 </t>
